--- a/artfynd/A 26723-2023.xlsx
+++ b/artfynd/A 26723-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112183921</v>
+        <v>112183920</v>
       </c>
       <c r="B2" t="n">
         <v>89405</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>763392.2344141467</v>
+        <v>763654</v>
       </c>
       <c r="R2" t="n">
-        <v>7448819.161097331</v>
+        <v>7448906</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -757,19 +757,9 @@
           <t>2023-06-30</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-06-30</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -845,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>763400.8978577825</v>
+        <v>763401</v>
       </c>
       <c r="R3" t="n">
-        <v>7448827.078545566</v>
+        <v>7448827</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -878,19 +868,9 @@
           <t>2023-07-06</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-07-06</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -922,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112183947</v>
+        <v>112183921</v>
       </c>
       <c r="B4" t="n">
-        <v>89570</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,21 +918,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1588</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -966,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>763390.9898576343</v>
+        <v>763392</v>
       </c>
       <c r="R4" t="n">
-        <v>7448819.825094721</v>
+        <v>7448819</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -999,19 +979,9 @@
           <t>2023-06-30</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-06-30</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1043,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112183920</v>
+        <v>112183036</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,21 +1029,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1087,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>763653.8430000627</v>
+        <v>763482</v>
       </c>
       <c r="R5" t="n">
-        <v>7448906.4147442</v>
+        <v>7448939</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1120,19 +1090,9 @@
           <t>2023-06-30</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-06-30</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1164,10 +1124,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112183036</v>
+        <v>112181983</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>89570</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1180,21 +1140,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>1588</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Ryvarden</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1208,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>763481.5695372281</v>
+        <v>763400</v>
       </c>
       <c r="R6" t="n">
-        <v>7448939.059331032</v>
+        <v>7448829</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1238,22 +1198,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1285,7 +1235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112181983</v>
+        <v>112183947</v>
       </c>
       <c r="B7" t="n">
         <v>89570</v>
@@ -1329,10 +1279,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>763399.928710039</v>
+        <v>763391</v>
       </c>
       <c r="R7" t="n">
-        <v>7448828.947903937</v>
+        <v>7448820</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1359,22 +1309,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">

--- a/artfynd/A 26723-2023.xlsx
+++ b/artfynd/A 26723-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112183920</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112181997</v>
+        <v>112183947</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>89704</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>1588</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Ryvarden</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>763401</v>
+        <v>763391</v>
       </c>
       <c r="R3" t="n">
-        <v>7448827</v>
+        <v>7448820</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -865,12 +865,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -905,7 +905,7 @@
         <v>112183921</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>112183036</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112181983</v>
+        <v>112181997</v>
       </c>
       <c r="B6" t="n">
-        <v>89570</v>
+        <v>89539</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,21 +1140,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1588</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>763400</v>
+        <v>763401</v>
       </c>
       <c r="R6" t="n">
-        <v>7448829</v>
+        <v>7448827</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112183947</v>
+        <v>112181983</v>
       </c>
       <c r="B7" t="n">
-        <v>89570</v>
+        <v>89704</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>763391</v>
+        <v>763400</v>
       </c>
       <c r="R7" t="n">
-        <v>7448820</v>
+        <v>7448829</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1309,12 +1309,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">

--- a/artfynd/A 26723-2023.xlsx
+++ b/artfynd/A 26723-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112183920</v>
+        <v>112183921</v>
       </c>
       <c r="B2" t="n">
-        <v>89539</v>
+        <v>89553</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>763654</v>
+        <v>763392</v>
       </c>
       <c r="R2" t="n">
-        <v>7448906</v>
+        <v>7448819</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112183947</v>
+        <v>112183920</v>
       </c>
       <c r="B3" t="n">
-        <v>89704</v>
+        <v>89553</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1588</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>763391</v>
+        <v>763654</v>
       </c>
       <c r="R3" t="n">
-        <v>7448820</v>
+        <v>7448906</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112183921</v>
+        <v>112181983</v>
       </c>
       <c r="B4" t="n">
-        <v>89539</v>
+        <v>89718</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,21 +918,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>1588</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Ryvarden</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>763392</v>
+        <v>763400</v>
       </c>
       <c r="R4" t="n">
-        <v>7448819</v>
+        <v>7448829</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -976,12 +976,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1013,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112183036</v>
+        <v>112183947</v>
       </c>
       <c r="B5" t="n">
-        <v>89557</v>
+        <v>89718</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,21 +1029,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>1588</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Ryvarden</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>763482</v>
+        <v>763391</v>
       </c>
       <c r="R5" t="n">
-        <v>7448939</v>
+        <v>7448820</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112181997</v>
+        <v>112183036</v>
       </c>
       <c r="B6" t="n">
-        <v>89539</v>
+        <v>89571</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,21 +1140,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>763401</v>
+        <v>763482</v>
       </c>
       <c r="R6" t="n">
-        <v>7448827</v>
+        <v>7448939</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1198,12 +1198,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1235,10 +1235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112181983</v>
+        <v>112181997</v>
       </c>
       <c r="B7" t="n">
-        <v>89704</v>
+        <v>89553</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1251,21 +1251,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1588</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>763400</v>
+        <v>763401</v>
       </c>
       <c r="R7" t="n">
-        <v>7448829</v>
+        <v>7448827</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>

--- a/artfynd/A 26723-2023.xlsx
+++ b/artfynd/A 26723-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112183921</v>
+        <v>112181997</v>
       </c>
       <c r="B2" t="n">
         <v>89553</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>763392</v>
+        <v>763401</v>
       </c>
       <c r="R2" t="n">
-        <v>7448819</v>
+        <v>7448827</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -754,12 +754,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112183920</v>
+        <v>112181983</v>
       </c>
       <c r="B3" t="n">
-        <v>89553</v>
+        <v>89718</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,21 +807,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>1588</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Ryvarden</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>763654</v>
+        <v>763400</v>
       </c>
       <c r="R3" t="n">
-        <v>7448906</v>
+        <v>7448829</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -865,12 +865,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-06-30</t>
+          <t>2023-07-06</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -902,10 +902,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112181983</v>
+        <v>112183920</v>
       </c>
       <c r="B4" t="n">
-        <v>89718</v>
+        <v>89553</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,21 +918,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1588</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>763400</v>
+        <v>763654</v>
       </c>
       <c r="R4" t="n">
-        <v>7448829</v>
+        <v>7448906</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -976,12 +976,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1013,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112183947</v>
+        <v>112183036</v>
       </c>
       <c r="B5" t="n">
-        <v>89718</v>
+        <v>89571</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,21 +1029,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1588</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Violmussling</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Trichaptum laricinum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Ryvarden</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>763391</v>
+        <v>763482</v>
       </c>
       <c r="R5" t="n">
-        <v>7448820</v>
+        <v>7448939</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112183036</v>
+        <v>112183947</v>
       </c>
       <c r="B6" t="n">
-        <v>89571</v>
+        <v>89718</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,21 +1140,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>1588</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Violmussling</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Trichaptum laricinum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Ryvarden</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>763482</v>
+        <v>763391</v>
       </c>
       <c r="R6" t="n">
-        <v>7448939</v>
+        <v>7448820</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112181997</v>
+        <v>112183921</v>
       </c>
       <c r="B7" t="n">
         <v>89553</v>
@@ -1279,10 +1279,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>763401</v>
+        <v>763392</v>
       </c>
       <c r="R7" t="n">
-        <v>7448827</v>
+        <v>7448819</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1309,12 +1309,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-07-06</t>
+          <t>2023-06-30</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
